--- a/xlsx/上海译文出版社_intext.xlsx
+++ b/xlsx/上海译文出版社_intext.xlsx
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E7%89%88%E6%A5%AD</t>
   </si>
   <si>
-    <t>出版業</t>
+    <t>出版业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A7%E8%82%A1%E5%85%AC%E5%8F%B8</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%BC%E5%AE%AE%E6%98%A5%E6%97%A5%E7%B3%BB%E5%88%97</t>
   </si>
   <si>
-    <t>涼宮春日系列</t>
+    <t>凉宫春日系列</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B0%B7%E5%B7%9D%E6%B5%81</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9D%B1%E9%9B%9C%E9%9F%B3_(1999%E5%B9%B4%E5%87%BA%E9%81%93)</t>
   </si>
   <si>
-    <t>伊東雜音 (1999年出道)</t>
+    <t>伊东杂音 (1999年出道)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%88%E6%9D%83</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%9D%91%E8%B2%B4%E4%B8%96</t>
   </si>
   <si>
-    <t>西村貴世</t>
+    <t>西村贵世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B9%E5%92%8C%E5%A5%B9%E7%9A%84%E7%8C%AB</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B0%E7%94%B0%E5%AE%88</t>
   </si>
   <si>
-    <t>細田守</t>
+    <t>细田守</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9E%E6%9C%AC%E4%B9%89%E8%A1%8C</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8%E4%BB%A3%E7%90%86%E8%BC%95%E5%B0%8F%E8%AA%AA%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>中國大陸代理輕小說列表</t>
+    <t>中国大陆代理轻小说列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E4%B8%8A%E6%B5%B7%E5%87%BA%E7%89%88%E6%9C%BA%E6%9E%84</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E5%8D%97%E6%A9%9F%E5%99%A8%E8%A3%BD%E9%80%A0%E7%B8%BD%E5%B1%80</t>
   </si>
   <si>
-    <t>江南機器製造總局</t>
+    <t>江南机器制造总局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%AB%E5%8F%91%E6%B4%8B%E8%A1%8C</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E5%B8%82_(%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B)</t>
   </si>
   <si>
-    <t>上海市 (中華民國)</t>
+    <t>上海市 (中华民国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%B9%A6%E5%B1%80</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E7%A4%BE</t>
   </si>
   <si>
-    <t>復社</t>
+    <t>复社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E4%BA%BA%E6%B0%91%E5%87%BA%E7%89%88%E7%A4%BE</t>
@@ -569,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%B1%E7%B4%99</t>
   </si>
   <si>
-    <t>報紙</t>
+    <t>报纸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%88%B7</t>
@@ -3153,7 +3153,7 @@
         <v>22</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="s">
         <v>4</v>
